--- a/Excel practice basics.xlsx
+++ b/Excel practice basics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a630954cf186000/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjGit\Basic-Exl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{C11CC19D-09AB-4CDE-B4E7-8D58202612E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F4D48774-8FB5-4170-A260-5DAF7A9C0B71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18DB749-2384-4DF0-A8B3-5601A966F351}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="186">
   <si>
     <t>ALL COMMANDS</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>SUMPRODUCT(B18:B22,C18:C22)</t>
+  </si>
+  <si>
+    <t>POWER(10,2)</t>
   </si>
 </sst>
 </file>
@@ -598,12 +601,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -719,88 +729,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -812,6 +825,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -841,9 +857,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,7 +956,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NAME" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SALARAY" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="COUNT" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="WAGES" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="WAGES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1210,7 +1223,7 @@
   <dimension ref="A2:S64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1238,6 +1251,9 @@
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="21"/>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
       <c r="N4">
         <v>4</v>
       </c>
@@ -1246,7 +1262,7 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="28" t="s">
         <v>136</v>
       </c>
       <c r="H5" s="27" t="s">
@@ -1314,7 +1330,7 @@
       </c>
       <c r="E9">
         <f ca="1">DAY(TODAY())</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -1355,7 +1371,7 @@
       </c>
       <c r="E11" s="18">
         <f ca="1">TODAY()+10</f>
-        <v>44665</v>
+        <v>44677</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>144</v>
@@ -1970,17 +1986,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q14:Q18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:Q17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2370,7 +2386,7 @@
     <row r="24" spans="2:16">
       <c r="H24">
         <f ca="1">RAND()</f>
-        <v>0.6494294246891168</v>
+        <v>0.75946400980217088</v>
       </c>
       <c r="O24" t="s">
         <v>151</v>
@@ -2385,7 +2401,7 @@
       </c>
       <c r="H25">
         <f t="shared" ref="H25:H27" ca="1" si="5">RAND()</f>
-        <v>0.96627050218883659</v>
+        <v>0.53904546477788373</v>
       </c>
     </row>
     <row r="26" spans="2:16">
@@ -2394,7 +2410,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54501345175661664</v>
+        <v>0.29490024585503416</v>
       </c>
       <c r="O26" s="27" t="s">
         <v>177</v>
@@ -2403,7 +2419,7 @@
     <row r="27" spans="2:16">
       <c r="H27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24396260669153469</v>
+        <v>4.3939670728941338E-2</v>
       </c>
       <c r="O27" s="27" t="s">
         <v>176</v>
